--- a/new Tool Object.xlsx
+++ b/new Tool Object.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lamresearch-my.sharepoint.com/personal/jadon_kessell_lamresearch_com1/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{38FFFFEE-41C3-4321-BD88-DC8FA24B3FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F6C2B5C-D8B8-4D27-99EF-9E3A54CE1C4A}"/>
+  <xr:revisionPtr revIDLastSave="291" documentId="8_{38FFFFEE-41C3-4321-BD88-DC8FA24B3FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A7C630C-B9FE-4DFA-8848-49348F544E86}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="135" windowWidth="14400" windowHeight="15600" xr2:uid="{C089EB62-9B88-4E53-AD26-53A26110D4E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C089EB62-9B88-4E53-AD26-53A26110D4E3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="tool" sheetId="1" r:id="rId1"/>
+    <sheet name="relation" sheetId="2" r:id="rId2"/>
+    <sheet name="event card" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
   <si>
     <t>BEN</t>
   </si>
@@ -132,13 +134,201 @@
   </si>
   <si>
     <t>hard</t>
+  </si>
+  <si>
+    <t>reduceMorale</t>
+  </si>
+  <si>
+    <t>progressSection</t>
+  </si>
+  <si>
+    <t>requiredRole</t>
+  </si>
+  <si>
+    <t>1 (test)</t>
+  </si>
+  <si>
+    <t>2 (qt)</t>
+  </si>
+  <si>
+    <t>10-&gt;</t>
+  </si>
+  <si>
+    <t>typeOfOP</t>
+  </si>
+  <si>
+    <t>assembly</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>paperwork</t>
+  </si>
+  <si>
+    <t>potentialSavings</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <r>
+      <t>DA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>▪</t>
+    </r>
+  </si>
+  <si>
+    <t>{100-001}</t>
+  </si>
+  <si>
+    <t>{200-001, 200-002}</t>
+  </si>
+  <si>
+    <t>install</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Nuetral in general (lone wolf)</t>
+  </si>
+  <si>
+    <t>dislikes everyone but increased QT stats + admin growth</t>
+  </si>
+  <si>
+    <t>HATES A people but LOVES C people</t>
+  </si>
+  <si>
+    <t>good with anyone EXCEPT HATES people with IDs that end with 3</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>aba</t>
+  </si>
+  <si>
+    <t>abb</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>bad for B but good for A</t>
+  </si>
+  <si>
+    <t>first impression</t>
+  </si>
+  <si>
+    <t>randomly sets relationship</t>
+  </si>
+  <si>
+    <t>good f.i.</t>
+  </si>
+  <si>
+    <t>acquaintance</t>
+  </si>
+  <si>
+    <t>great f.i.</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>bad f.i.</t>
+  </si>
+  <si>
+    <t>disliked</t>
+  </si>
+  <si>
+    <t>terrible f.i.</t>
+  </si>
+  <si>
+    <t>hates</t>
+  </si>
+  <si>
+    <t>Relationship Feature</t>
+  </si>
+  <si>
+    <t>new Tool object</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>Employee Personality Archetypes</t>
+  </si>
+  <si>
+    <t>enjoys keeping busy</t>
+  </si>
+  <si>
+    <t>enjoys downtime</t>
+  </si>
+  <si>
+    <t>enjoys learning new tools</t>
+  </si>
+  <si>
+    <t>Event card ideas</t>
+  </si>
+  <si>
+    <t>Event Card system</t>
+  </si>
+  <si>
+    <t>Giant lapse in demand</t>
+  </si>
+  <si>
+    <t>pandemic (only 1 tech per tool)</t>
+  </si>
+  <si>
+    <t>make rand_clause_chance function</t>
+  </si>
+  <si>
+    <t>implem tech unassigned bay</t>
+  </si>
+  <si>
+    <t>hire tech button is changed to oversees hire (not very good techs only)</t>
+  </si>
+  <si>
+    <t>implem tech training (with relationship)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,8 +343,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +376,24 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -183,12 +404,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -197,11 +419,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="60% - Accent1" xfId="2" builtinId="32"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -222,7 +460,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2521652" cy="264560"/>
@@ -279,10 +517,6 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -602,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417B694C-FB0A-48EA-A1B6-D269B5F64FE3}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,198 +849,914 @@
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:27" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L3" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>45</v>
-      </c>
-      <c r="G3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>50</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="Q10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="5">
         <v>0.3</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="Q11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11">
+        <v>30</v>
+      </c>
+      <c r="S11">
+        <v>80</v>
+      </c>
+      <c r="T11">
+        <v>30</v>
+      </c>
+      <c r="U11">
+        <v>30</v>
+      </c>
+      <c r="V11">
+        <v>30</v>
+      </c>
+      <c r="W11">
+        <v>30</v>
+      </c>
+      <c r="X11">
+        <v>30</v>
+      </c>
+      <c r="Y11">
+        <v>30</v>
+      </c>
+      <c r="Z11">
+        <v>30</v>
+      </c>
+      <c r="AA11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E12" s="5">
         <v>0.01</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F12" s="5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D12" s="4" t="s">
+      <c r="Q12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="T12" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="U12" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="V12" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="W12" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="b">
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D13" s="4" t="s">
+      <c r="P13">
+        <f>Q13/5/2</f>
+        <v>35</v>
+      </c>
+      <c r="Q13">
+        <f>SUM(R11:AA11)</f>
+        <v>350</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="T13" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="U13" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="W13" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="R14" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+      <c r="U14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V14" t="b">
+        <v>0</v>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="R16" t="s">
+        <v>48</v>
+      </c>
+      <c r="S16" t="s">
+        <v>48</v>
+      </c>
+      <c r="T16" t="s">
+        <v>48</v>
+      </c>
+      <c r="U16" t="s">
+        <v>40</v>
+      </c>
+      <c r="V16" t="s">
+        <v>39</v>
+      </c>
+      <c r="W16" t="s">
+        <v>39</v>
+      </c>
+      <c r="X16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19">
+        <v>-1</v>
+      </c>
+      <c r="S19">
+        <v>-1</v>
+      </c>
+      <c r="T19">
+        <v>-1</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>-1</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>2</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <f>R11*(1-R12)</f>
+        <v>18</v>
+      </c>
+      <c r="S20">
+        <f>S11*(1-S12)</f>
+        <v>15.999999999999996</v>
+      </c>
+      <c r="T20">
+        <f>T11*(1-T12)</f>
+        <v>5.9999999999999982</v>
+      </c>
+      <c r="U20">
+        <f>U11*(1-U12)</f>
+        <v>5.9999999999999982</v>
+      </c>
+      <c r="V20">
+        <f>V11*(1-V12)</f>
+        <v>5.9999999999999982</v>
+      </c>
+      <c r="W20">
+        <f>W11*(1-W12)</f>
+        <v>5.9999999999999982</v>
+      </c>
+      <c r="X20">
+        <f>X11*(1-X12)</f>
+        <v>5.9999999999999982</v>
+      </c>
+      <c r="Y20">
+        <f>Y11*(1-Y12)</f>
+        <v>5.9999999999999982</v>
+      </c>
+      <c r="Z20">
+        <f>Z11*(1-Z12)</f>
+        <v>5.9999999999999982</v>
+      </c>
+      <c r="AA20">
+        <f>AA11*(1-AA12)</f>
+        <v>5.9999999999999982</v>
+      </c>
+    </row>
+    <row r="21" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="R21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
         <v>29</v>
       </c>
-      <c r="F14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
+    </row>
+    <row r="26" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:R1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3B3259-AD73-4B64-87E6-6EE7EE572031}">
+  <dimension ref="A1:Y24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E9" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E10" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E11" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>68</v>
+      </c>
+      <c r="R11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E12" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>70</v>
+      </c>
+      <c r="R12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q13" t="s">
+        <v>72</v>
+      </c>
+      <c r="R13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="V3:Y3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB5ADF9-3290-4C08-9577-FCD054524AFD}">
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
